--- a/biology/Botanique/Parc_Delicourt_de_Ham/Parc_Delicourt_de_Ham.xlsx
+++ b/biology/Botanique/Parc_Delicourt_de_Ham/Parc_Delicourt_de_Ham.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Delicourt est un jardin public situé à Ham dans le département de la Somme à la limite du département de l’Aisne.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1878, Etienne Delicourt, riche propriétaire parisien vint se fixer à Ham d’où était originaire son épouse. Lors du dérasement des fortifications sur le boulevard nord (aujourd’hui boulevard de la République),  il acheta  les terrains marécageux situés entre le boulevard et la Somme.
 Il fit dessiner un parc par un paysagiste parisien qui détourna le cours de la Somme pour créer une pièce d’eau.
@@ -546,7 +560,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc Delicourt est un jardin à l’anglaise avec :
 Flore :
@@ -598,6 +614,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
